--- a/Servidor/Economia DFAtlisLife.xlsx
+++ b/Servidor/Economia DFAtlisLife.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\GitHub\DFAltisLife\Servidor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AFDB07-F6B2-4177-9974-BAF515CF46F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Veículos</t>
   </si>
@@ -268,13 +274,16 @@
   </si>
   <si>
     <t xml:space="preserve">retirar os dois veiculos combustivel </t>
+  </si>
+  <si>
+    <t>Coloquei esse valor no lugar de ecstasy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +335,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +491,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +504,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,6 +516,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -498,7 +526,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -536,9 +564,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,9 +599,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +651,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -781,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,33 +867,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="10">
         <v>24</v>
       </c>
@@ -888,11 +950,11 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="10">
         <v>144</v>
       </c>
@@ -949,11 +1011,11 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="2">
         <v>30</v>
       </c>
@@ -1034,7 +1096,7 @@
       <c r="H7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -2327,7 +2389,7 @@
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="9"/>
@@ -2435,7 +2497,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -2449,7 +2511,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>68</v>
       </c>
@@ -2463,7 +2525,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>78</v>
       </c>
@@ -2477,7 +2539,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>79</v>
       </c>
@@ -2491,7 +2553,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
@@ -2505,7 +2567,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
@@ -2519,7 +2581,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -2533,7 +2595,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>82</v>
       </c>
@@ -2547,7 +2609,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
@@ -2561,7 +2623,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
@@ -2575,7 +2637,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
@@ -2589,7 +2651,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>37</v>
       </c>
@@ -2603,15 +2665,15 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -2621,7 +2683,7 @@
       </c>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2692,9 @@
         <v>5000</v>
       </c>
       <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
@@ -2640,8 +2703,9 @@
         <v>15000</v>
       </c>
       <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -2650,8 +2714,9 @@
         <v>50000</v>
       </c>
       <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
@@ -2660,8 +2725,9 @@
         <v>100000</v>
       </c>
       <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>49</v>
       </c>
@@ -2670,8 +2736,9 @@
         <v>45000</v>
       </c>
       <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>47</v>
       </c>
@@ -2680,8 +2747,9 @@
         <v>500000</v>
       </c>
       <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -2690,8 +2758,9 @@
         <v>500000</v>
       </c>
       <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -2700,8 +2769,9 @@
         <v>20000</v>
       </c>
       <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
@@ -2710,8 +2780,9 @@
         <v>30000</v>
       </c>
       <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -2720,8 +2791,9 @@
         <v>40000</v>
       </c>
       <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -2730,8 +2802,9 @@
         <v>50000</v>
       </c>
       <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E58" s="28"/>
+    </row>
+    <row r="59" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>2</v>
       </c>
@@ -2740,8 +2813,9 @@
         <v>60000</v>
       </c>
       <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>8</v>
       </c>
@@ -2750,8 +2824,9 @@
         <v>70000</v>
       </c>
       <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>9</v>
       </c>
@@ -2760,8 +2835,9 @@
         <v>80000</v>
       </c>
       <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>16</v>
       </c>
@@ -2770,8 +2846,9 @@
         <v>100000</v>
       </c>
       <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>17</v>
       </c>
@@ -2780,8 +2857,10 @@
         <v>120000</v>
       </c>
       <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E63" s="28"/>
+      <c r="G63" s="29"/>
+    </row>
+    <row r="64" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>18</v>
       </c>
@@ -2790,8 +2869,9 @@
         <v>140000</v>
       </c>
       <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>19</v>
       </c>
@@ -2800,8 +2880,9 @@
         <v>160000</v>
       </c>
       <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>20</v>
       </c>
@@ -2810,8 +2891,11 @@
         <v>180000</v>
       </c>
       <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E66" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>21</v>
       </c>
@@ -2820,8 +2904,9 @@
         <v>200000</v>
       </c>
       <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>22</v>
       </c>
@@ -2830,16 +2915,17 @@
         <v>220000</v>
       </c>
       <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -2851,55 +2937,55 @@
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
@@ -3157,12 +3243,12 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3174,7 +3260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Servidor/Economia DFAtlisLife.xlsx
+++ b/Servidor/Economia DFAtlisLife.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\GitHub\DFAltisLife\Servidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2AFDB07-F6B2-4177-9974-BAF515CF46F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD4F4922-78B7-43DF-950B-69C1B7067907}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,6 +495,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,8 +506,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,33 +867,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="10">
         <v>24</v>
       </c>
@@ -950,11 +950,11 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="10">
         <v>144</v>
       </c>
@@ -1011,11 +1011,11 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="2">
         <v>30</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>5000</v>
       </c>
       <c r="D48" s="8"/>
-      <c r="E48" s="28"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
@@ -2703,7 +2703,7 @@
         <v>15000</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="28"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
@@ -2714,7 +2714,7 @@
         <v>50000</v>
       </c>
       <c r="D50" s="8"/>
-      <c r="E50" s="28"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
@@ -2725,7 +2725,7 @@
         <v>100000</v>
       </c>
       <c r="D51" s="8"/>
-      <c r="E51" s="28"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
@@ -2736,7 +2736,7 @@
         <v>45000</v>
       </c>
       <c r="D52" s="8"/>
-      <c r="E52" s="28"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
@@ -2747,7 +2747,7 @@
         <v>500000</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="28"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
@@ -2758,7 +2758,7 @@
         <v>500000</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="28"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
@@ -2769,7 +2769,7 @@
         <v>20000</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="28"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
@@ -2780,7 +2780,7 @@
         <v>30000</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="28"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
@@ -2791,7 +2791,7 @@
         <v>40000</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="28"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -2802,7 +2802,7 @@
         <v>50000</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="28"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2813,7 +2813,7 @@
         <v>60000</v>
       </c>
       <c r="D59" s="8"/>
-      <c r="E59" s="28"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
@@ -2824,7 +2824,7 @@
         <v>70000</v>
       </c>
       <c r="D60" s="8"/>
-      <c r="E60" s="28"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
@@ -2835,7 +2835,7 @@
         <v>80000</v>
       </c>
       <c r="D61" s="8"/>
-      <c r="E61" s="28"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
@@ -2846,7 +2846,7 @@
         <v>100000</v>
       </c>
       <c r="D62" s="8"/>
-      <c r="E62" s="28"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
@@ -2857,8 +2857,8 @@
         <v>120000</v>
       </c>
       <c r="D63" s="8"/>
-      <c r="E63" s="28"/>
-      <c r="G63" s="29"/>
+      <c r="E63" s="25"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
@@ -2869,7 +2869,7 @@
         <v>140000</v>
       </c>
       <c r="D64" s="8"/>
-      <c r="E64" s="28"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
@@ -2880,7 +2880,7 @@
         <v>160000</v>
       </c>
       <c r="D65" s="8"/>
-      <c r="E65" s="28"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
@@ -2904,7 +2904,7 @@
         <v>200000</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="28"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
@@ -2915,7 +2915,7 @@
         <v>220000</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="28"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C69" s="9"/>
@@ -3181,16 +3181,24 @@
       <c r="A107" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
+      <c r="B107" s="7">
+        <v>5</v>
+      </c>
+      <c r="C107" s="8">
+        <v>80000</v>
+      </c>
       <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="7">
+        <v>10</v>
+      </c>
+      <c r="C108" s="8">
+        <v>150000</v>
+      </c>
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">

--- a/Servidor/Economia DFAtlisLife.xlsx
+++ b/Servidor/Economia DFAtlisLife.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\GitHub\DFAltisLife\Servidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD4F4922-78B7-43DF-950B-69C1B7067907}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FABCF0AD-41F9-44A8-B441-4C696D0C5A43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
   <si>
     <t>Veículos</t>
   </si>
@@ -276,14 +276,116 @@
     <t xml:space="preserve">retirar os dois veiculos combustivel </t>
   </si>
   <si>
-    <t>Coloquei esse valor no lugar de ecstasy</t>
+    <t>pistola</t>
+  </si>
+  <si>
+    <t>pistola heavy</t>
+  </si>
+  <si>
+    <t>acpc2</t>
+  </si>
+  <si>
+    <t>smg</t>
+  </si>
+  <si>
+    <t>pdw</t>
+  </si>
+  <si>
+    <t>katiba</t>
+  </si>
+  <si>
+    <t>Sdar</t>
+  </si>
+  <si>
+    <t>TRG20</t>
+  </si>
+  <si>
+    <t>mk20</t>
+  </si>
+  <si>
+    <t>Ctar</t>
+  </si>
+  <si>
+    <t>Katiba_f</t>
+  </si>
+  <si>
+    <t>Mxc</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>Mxm</t>
+  </si>
+  <si>
+    <t>Mxm_black</t>
+  </si>
+  <si>
+    <t>Mx_Sw</t>
+  </si>
+  <si>
+    <t>Mx_sw_black</t>
+  </si>
+  <si>
+    <t>Zafir</t>
+  </si>
+  <si>
+    <t>Lmg_3</t>
+  </si>
+  <si>
+    <t>mk200</t>
+  </si>
+  <si>
+    <t>Aks_F</t>
+  </si>
+  <si>
+    <t>Akm_F</t>
+  </si>
+  <si>
+    <t>Ak12</t>
+  </si>
+  <si>
+    <t>Dmr_07</t>
+  </si>
+  <si>
+    <t>Dmr_01</t>
+  </si>
+  <si>
+    <t>EBR</t>
+  </si>
+  <si>
+    <t>Dmr_06</t>
+  </si>
+  <si>
+    <t>Dmr_03</t>
+  </si>
+  <si>
+    <t>Spar_01</t>
+  </si>
+  <si>
+    <t>Spar_03</t>
+  </si>
+  <si>
+    <t>Spar16</t>
+  </si>
+  <si>
+    <t>45ACP</t>
+  </si>
+  <si>
+    <t>acrescentar xaninha</t>
+  </si>
+  <si>
+    <t>OK!</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +438,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
@@ -344,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,7 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,8 +618,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,6 +637,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,33 +1002,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="10">
         <v>24</v>
       </c>
@@ -950,11 +1088,11 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="10">
         <v>144</v>
       </c>
@@ -1011,63 +1149,81 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="2">
+        <f>B30</f>
         <v>30</v>
       </c>
       <c r="E6" s="2">
+        <f>B31</f>
+        <v>50</v>
+      </c>
+      <c r="F6" s="10">
+        <f>B32</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="2">
+        <f>B33</f>
         <v>70</v>
       </c>
-      <c r="F6" s="10">
-        <v>86</v>
-      </c>
-      <c r="G6" s="2">
-        <v>98</v>
-      </c>
       <c r="H6" s="2">
+        <f>B34</f>
+        <v>90</v>
+      </c>
+      <c r="I6" s="10">
+        <f>B35</f>
+        <v>150</v>
+      </c>
+      <c r="J6" s="2">
+        <f>B36</f>
+        <v>200</v>
+      </c>
+      <c r="K6" s="10">
+        <f>B37</f>
+        <v>250</v>
+      </c>
+      <c r="L6" s="10">
+        <f>B38</f>
+        <v>280</v>
+      </c>
+      <c r="M6" s="2">
+        <f>B39</f>
+        <v>300</v>
+      </c>
+      <c r="N6" s="2">
+        <f>B40</f>
+        <v>350</v>
+      </c>
+      <c r="O6" s="10">
+        <f>B41</f>
+        <v>450</v>
+      </c>
+      <c r="P6" s="2">
+        <f>B42</f>
+        <v>900</v>
+      </c>
+      <c r="Q6" s="10">
+        <f>B43</f>
+        <v>700</v>
+      </c>
+      <c r="R6" s="10">
+        <f>B44</f>
         <v>100</v>
       </c>
-      <c r="I6" s="10">
-        <v>150</v>
-      </c>
-      <c r="J6" s="2">
-        <v>200</v>
-      </c>
-      <c r="K6" s="10">
-        <v>250</v>
-      </c>
-      <c r="L6" s="10">
-        <v>280</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="S6" s="10">
+        <f>B45</f>
         <v>300</v>
       </c>
-      <c r="N6" s="2">
-        <v>350</v>
-      </c>
-      <c r="O6" s="10">
-        <v>450</v>
-      </c>
-      <c r="P6" s="2">
-        <v>900</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>700</v>
-      </c>
-      <c r="R6" s="10">
-        <v>150</v>
-      </c>
-      <c r="S6" s="10">
-        <v>300</v>
-      </c>
       <c r="T6" s="10">
+        <f>B46</f>
         <v>500</v>
       </c>
       <c r="U6" s="10">
+        <f>B47</f>
         <v>700</v>
       </c>
     </row>
@@ -1147,24 +1303,24 @@
         <v>210</v>
       </c>
       <c r="D8" s="15">
-        <f>SUM((D6+D5)/B8)*C8</f>
-        <v>18270</v>
+        <f>SUM((D6+D5+D4)/B8)*C8</f>
+        <v>20790</v>
       </c>
       <c r="E8" s="15">
         <f>SUM((E6+E5)/B8)*C8</f>
-        <v>22470</v>
+        <v>20370</v>
       </c>
       <c r="F8" s="15">
         <f>SUM((F6+F5)/B8)*C8</f>
-        <v>24150</v>
+        <v>21420</v>
       </c>
       <c r="G8" s="15">
         <f>SUM((G6+G5)/B8)*C8</f>
-        <v>25410</v>
+        <v>22470</v>
       </c>
       <c r="H8" s="15">
         <f>SUM((H6+H5)/B8)*C8</f>
-        <v>25620</v>
+        <v>24570</v>
       </c>
       <c r="I8" s="15">
         <f>SUM((I6+I5)/B8)*C8</f>
@@ -1204,7 +1360,7 @@
       </c>
       <c r="R8" s="15">
         <f>SUM((R6+R5)/B8)*C8</f>
-        <v>30870</v>
+        <v>25620</v>
       </c>
       <c r="S8" s="15">
         <f>SUM((S6+S5)/B8)*C8</f>
@@ -1230,24 +1386,24 @@
         <v>315</v>
       </c>
       <c r="D9" s="21">
-        <f>SUM((D6+D5)/B9)*C9</f>
-        <v>27405</v>
+        <f>SUM((D6+D5+D4)/B9)*C9</f>
+        <v>31185</v>
       </c>
       <c r="E9" s="21">
         <f>SUM((E6+E5)/B9)*C9</f>
-        <v>33705</v>
+        <v>30555</v>
       </c>
       <c r="F9" s="21">
         <f>SUM((F6+F5)/B9)*C9</f>
-        <v>36225</v>
+        <v>32130</v>
       </c>
       <c r="G9" s="21">
         <f>SUM((G6+G5)/B9)*C9</f>
-        <v>38115</v>
+        <v>33705</v>
       </c>
       <c r="H9" s="21">
         <f>SUM((H6+H5)/B9)*C9</f>
-        <v>38430</v>
+        <v>36855</v>
       </c>
       <c r="I9" s="21">
         <f>SUM((I6+I5)/B9)*C9</f>
@@ -1287,7 +1443,7 @@
       </c>
       <c r="R9" s="21">
         <f>SUM((R6+R5)/B9)*C9</f>
-        <v>46305</v>
+        <v>38430</v>
       </c>
       <c r="S9" s="21">
         <f>SUM((S6+S5)/B9)*C9</f>
@@ -1313,24 +1469,24 @@
         <v>420</v>
       </c>
       <c r="D10" s="15">
-        <f>SUM((D6+D5)/B10)*C10</f>
-        <v>36540</v>
+        <f>SUM((D6+D5+D4)/B10)*C10</f>
+        <v>41580</v>
       </c>
       <c r="E10" s="15">
         <f>SUM((E6+E5)/B10)*C10</f>
-        <v>44940</v>
+        <v>40740</v>
       </c>
       <c r="F10" s="15">
         <f>SUM((F6+F5)/B10)*C10</f>
-        <v>48300</v>
+        <v>42840</v>
       </c>
       <c r="G10" s="15">
         <f>SUM((G6+G5)/B10)*C10</f>
-        <v>50820</v>
+        <v>44940</v>
       </c>
       <c r="H10" s="15">
         <f>SUM((H6+H5)/B10)*C10</f>
-        <v>51240</v>
+        <v>49140</v>
       </c>
       <c r="I10" s="15">
         <f>SUM((I6+I5)/B10)*C10</f>
@@ -1370,7 +1526,7 @@
       </c>
       <c r="R10" s="15">
         <f>SUM((R6+R5)/B10)*C10</f>
-        <v>61740</v>
+        <v>51240</v>
       </c>
       <c r="S10" s="15">
         <f>SUM((S6+S5)/B10)*C10</f>
@@ -1396,24 +1552,24 @@
         <v>525</v>
       </c>
       <c r="D11" s="21">
-        <f>SUM((D6+D5)/B11)*C11</f>
-        <v>45675</v>
+        <f>SUM((D6+D5+D4)/B11)*C11</f>
+        <v>51975</v>
       </c>
       <c r="E11" s="21">
         <f>SUM((E6+E5)/B11)*C11</f>
-        <v>56175</v>
+        <v>50925</v>
       </c>
       <c r="F11" s="21">
         <f>SUM((F6+F5)/B11)*C11</f>
-        <v>60375</v>
+        <v>53550</v>
       </c>
       <c r="G11" s="21">
         <f>SUM((G6+G5)/B11)*C11</f>
-        <v>63525</v>
+        <v>56175</v>
       </c>
       <c r="H11" s="21">
         <f>SUM((H6+H5)/B11)*C11</f>
-        <v>64050</v>
+        <v>61425</v>
       </c>
       <c r="I11" s="21">
         <f>SUM((I6+I5)/B11)*C11</f>
@@ -1453,7 +1609,7 @@
       </c>
       <c r="R11" s="21">
         <f>SUM((R6+R5)/B11)*C11</f>
-        <v>77175</v>
+        <v>64050</v>
       </c>
       <c r="S11" s="21">
         <f>SUM((S6+S5)/B11)*C11</f>
@@ -1479,24 +1635,24 @@
         <v>630</v>
       </c>
       <c r="D12" s="15">
-        <f>SUM((D6+D5)/B12)*C12</f>
-        <v>54810</v>
+        <f>SUM((D6+D5+D4)/B12)*C12</f>
+        <v>62370</v>
       </c>
       <c r="E12" s="15">
         <f>SUM((E6+E5)/B12)*C12</f>
-        <v>67410</v>
+        <v>61110</v>
       </c>
       <c r="F12" s="15">
         <f>SUM((F6+F5)/B12)*C12</f>
-        <v>72450</v>
+        <v>64260</v>
       </c>
       <c r="G12" s="15">
         <f>SUM((G6+G5)/B12)*C12</f>
-        <v>76230</v>
+        <v>67410</v>
       </c>
       <c r="H12" s="15">
         <f>SUM((H6+H5)/B12)*C12</f>
-        <v>76860</v>
+        <v>73710</v>
       </c>
       <c r="I12" s="15">
         <f>SUM((I6+I5)/B12)*C12</f>
@@ -1536,7 +1692,7 @@
       </c>
       <c r="R12" s="15">
         <f>SUM((R6+R5)/B12)*C12</f>
-        <v>92610</v>
+        <v>76860</v>
       </c>
       <c r="S12" s="15">
         <f>SUM((S6+S5)/B12)*C12</f>
@@ -1562,24 +1718,24 @@
         <v>735</v>
       </c>
       <c r="D13" s="21">
-        <f>SUM((D6+D5)/B13)*C13</f>
-        <v>63945</v>
+        <f>SUM((D6+D5+D4)/B13)*C13</f>
+        <v>72765</v>
       </c>
       <c r="E13" s="21">
         <f>SUM((E6+E5)/B13)*C13</f>
-        <v>78645</v>
+        <v>71295</v>
       </c>
       <c r="F13" s="21">
         <f>SUM((F6+F5)/B13)*C13</f>
-        <v>84525</v>
+        <v>74970</v>
       </c>
       <c r="G13" s="21">
         <f>SUM((G6+G5)/B13)*C13</f>
-        <v>88935</v>
+        <v>78645</v>
       </c>
       <c r="H13" s="21">
         <f>SUM((H6+H5)/B13)*C13</f>
-        <v>89670</v>
+        <v>85995</v>
       </c>
       <c r="I13" s="21">
         <f>SUM((I6+I5)/B13)*C13</f>
@@ -1619,7 +1775,7 @@
       </c>
       <c r="R13" s="21">
         <f>SUM((R6+R5)/B13)*C13</f>
-        <v>108045</v>
+        <v>89670</v>
       </c>
       <c r="S13" s="21">
         <f>SUM((S6+S5)/B13)*C13</f>
@@ -1645,24 +1801,24 @@
         <v>845</v>
       </c>
       <c r="D14" s="15">
-        <f>SUM((D6+D5)/B14)*C14</f>
-        <v>73515</v>
+        <f>SUM((D6+D5+D4)/B14)*C14</f>
+        <v>83655</v>
       </c>
       <c r="E14" s="15">
         <f>SUM((E6+E5)/B14)*C14</f>
-        <v>90415</v>
+        <v>81965</v>
       </c>
       <c r="F14" s="15">
         <f>SUM((F6+F5)/B14)*C14</f>
-        <v>97175</v>
+        <v>86190</v>
       </c>
       <c r="G14" s="15">
         <f>SUM((G6+G5)/B14)*C14</f>
-        <v>102245</v>
+        <v>90415</v>
       </c>
       <c r="H14" s="15">
         <f>SUM((H6+H5)/B14)*C14</f>
-        <v>103090</v>
+        <v>98865</v>
       </c>
       <c r="I14" s="15">
         <f>SUM((I6+I5)/B14)*C14</f>
@@ -1702,7 +1858,7 @@
       </c>
       <c r="R14" s="15">
         <f>SUM((R6+R5)/B14)*C14</f>
-        <v>124215</v>
+        <v>103090</v>
       </c>
       <c r="S14" s="15">
         <f>SUM((S6+S5)/B14)*C14</f>
@@ -1728,24 +1884,24 @@
         <v>1055</v>
       </c>
       <c r="D15" s="21">
-        <f>SUM((D6+D5)/B15)*C15</f>
-        <v>91785</v>
+        <f>SUM((D6+D5+D4)/B15)*C15</f>
+        <v>104445</v>
       </c>
       <c r="E15" s="21">
         <f>SUM((E6+E5)/B15)*C15</f>
-        <v>112885</v>
+        <v>102335</v>
       </c>
       <c r="F15" s="21">
         <f>SUM((F6+F5)/B15)*C15</f>
-        <v>121325</v>
+        <v>107610</v>
       </c>
       <c r="G15" s="21">
         <f>SUM((G6+G5)/B15)*C15</f>
-        <v>127655</v>
+        <v>112885</v>
       </c>
       <c r="H15" s="21">
         <f>SUM((H6+H5)/B15)*C15</f>
-        <v>128710</v>
+        <v>123435</v>
       </c>
       <c r="I15" s="21">
         <f>SUM((I6+I5)/B15)*C15</f>
@@ -1785,7 +1941,7 @@
       </c>
       <c r="R15" s="21">
         <f>SUM((R6+R5)/B15)*C15</f>
-        <v>155085</v>
+        <v>128710</v>
       </c>
       <c r="S15" s="21">
         <f>SUM((S6+S5)/B15)*C15</f>
@@ -1811,24 +1967,24 @@
         <v>1575</v>
       </c>
       <c r="D16" s="15">
-        <f>SUM((D6+D5)/B16)*C16</f>
-        <v>91350</v>
+        <f>SUM((D6+D5+D4)/B16)*C16</f>
+        <v>103950</v>
       </c>
       <c r="E16" s="15">
         <f>SUM((E6+E5)/B16)*C16</f>
-        <v>112349.99999999999</v>
+        <v>101850.00000000001</v>
       </c>
       <c r="F16" s="15">
         <f>SUM((F6+F5)/B16)*C16</f>
-        <v>120750.00000000001</v>
+        <v>107100</v>
       </c>
       <c r="G16" s="15">
         <f>SUM((G6+G5)/B16)*C16</f>
-        <v>127050.00000000001</v>
+        <v>112349.99999999999</v>
       </c>
       <c r="H16" s="15">
         <f>SUM((H6+H5)/B16)*C16</f>
-        <v>128099.99999999999</v>
+        <v>122850</v>
       </c>
       <c r="I16" s="15">
         <f>SUM((I6+I5)/B16)*C16</f>
@@ -1868,7 +2024,7 @@
       </c>
       <c r="R16" s="15">
         <f>SUM((R6+R5)/B16)*C16</f>
-        <v>154350</v>
+        <v>128099.99999999999</v>
       </c>
       <c r="S16" s="15">
         <f>SUM((S6+S5)/B16)*C16</f>
@@ -1894,24 +2050,24 @@
         <v>1680</v>
       </c>
       <c r="D17" s="21">
-        <f>SUM((D6+D5)/B17)*C17</f>
-        <v>97440</v>
+        <f>SUM((D6+D5+D4)/B17)*C17</f>
+        <v>110880</v>
       </c>
       <c r="E17" s="21">
         <f>SUM((E6+E5)/B17)*C17</f>
-        <v>119839.99999999999</v>
+        <v>108640.00000000001</v>
       </c>
       <c r="F17" s="21">
         <f>SUM((F6+F5)/B17)*C17</f>
-        <v>128800.00000000001</v>
+        <v>114240</v>
       </c>
       <c r="G17" s="21">
         <f>SUM((G6+G5)/B17)*C17</f>
-        <v>135520</v>
+        <v>119839.99999999999</v>
       </c>
       <c r="H17" s="21">
         <f>SUM((H6+H5)/B17)*C17</f>
-        <v>136640</v>
+        <v>131040</v>
       </c>
       <c r="I17" s="21">
         <f>SUM((I6+I5)/B17)*C17</f>
@@ -1951,7 +2107,7 @@
       </c>
       <c r="R17" s="21">
         <f>SUM((R6+R5)/B17)*C17</f>
-        <v>164640</v>
+        <v>136640</v>
       </c>
       <c r="S17" s="21">
         <f>SUM((S6+S5)/B17)*C17</f>
@@ -1977,24 +2133,24 @@
         <v>1830</v>
       </c>
       <c r="D18" s="15">
-        <f>SUM((D6+D5)/B18)*C18</f>
-        <v>106140</v>
+        <f>SUM((D6+D5+D4)/B18)*C18</f>
+        <v>120780</v>
       </c>
       <c r="E18" s="15">
         <f>SUM((E6+E5)/B18)*C18</f>
-        <v>130539.99999999999</v>
+        <v>118340.00000000001</v>
       </c>
       <c r="F18" s="15">
         <f>SUM((F6+F5)/B18)*C18</f>
-        <v>140300</v>
+        <v>124440</v>
       </c>
       <c r="G18" s="15">
         <f>SUM((G6+G5)/B18)*C18</f>
-        <v>147620</v>
+        <v>130539.99999999999</v>
       </c>
       <c r="H18" s="15">
         <f>SUM((H6+H5)/B18)*C18</f>
-        <v>148840</v>
+        <v>142740</v>
       </c>
       <c r="I18" s="15">
         <f>SUM((I6+I5)/B18)*C18</f>
@@ -2034,7 +2190,7 @@
       </c>
       <c r="R18" s="15">
         <f>SUM((R6+R5)/B18)*C18</f>
-        <v>179340</v>
+        <v>148840</v>
       </c>
       <c r="S18" s="15">
         <f>SUM((S6+S5)/B18)*C18</f>
@@ -2060,24 +2216,24 @@
         <v>1935</v>
       </c>
       <c r="D19" s="21">
-        <f>SUM((D6+D5)/B19)*C19</f>
-        <v>112230</v>
+        <f>SUM((D6+D5+D4)/B19)*C19</f>
+        <v>127710</v>
       </c>
       <c r="E19" s="21">
         <f>SUM((E6+E5)/B19)*C19</f>
-        <v>138030</v>
+        <v>125130.00000000001</v>
       </c>
       <c r="F19" s="21">
         <f>SUM((F6+F5)/B19)*C19</f>
-        <v>148350</v>
+        <v>131580</v>
       </c>
       <c r="G19" s="21">
         <f>SUM((G6+G5)/B19)*C19</f>
-        <v>156090</v>
+        <v>138030</v>
       </c>
       <c r="H19" s="21">
         <f>SUM((H6+H5)/B19)*C19</f>
-        <v>157380</v>
+        <v>150930</v>
       </c>
       <c r="I19" s="21">
         <f>SUM((I6+I5)/B19)*C19</f>
@@ -2117,7 +2273,7 @@
       </c>
       <c r="R19" s="21">
         <f>SUM((R6+R5)/B19)*C19</f>
-        <v>189630</v>
+        <v>157380</v>
       </c>
       <c r="S19" s="21">
         <f>SUM((S6+S5)/B19)*C19</f>
@@ -2143,24 +2299,24 @@
         <v>2055</v>
       </c>
       <c r="D20" s="15">
-        <f>SUM((D6+D5)/B20)*C20</f>
-        <v>119190</v>
+        <f>SUM((D6+D5+D4)/B20)*C20</f>
+        <v>135630</v>
       </c>
       <c r="E20" s="15">
         <f>SUM((E6+E5)/B20)*C20</f>
-        <v>146590</v>
+        <v>132890</v>
       </c>
       <c r="F20" s="15">
         <f>SUM((F6+F5)/B20)*C20</f>
-        <v>157550</v>
+        <v>139740</v>
       </c>
       <c r="G20" s="15">
         <f>SUM((G6+G5)/B20)*C20</f>
-        <v>165770</v>
+        <v>146590</v>
       </c>
       <c r="H20" s="15">
         <f>SUM((H6+H5)/B20)*C20</f>
-        <v>167140</v>
+        <v>160290</v>
       </c>
       <c r="I20" s="15">
         <f>SUM((I6+I5)/B20)*C20</f>
@@ -2200,7 +2356,7 @@
       </c>
       <c r="R20" s="15">
         <f>SUM((R6+R5)/B20)*C20</f>
-        <v>201390</v>
+        <v>167140</v>
       </c>
       <c r="S20" s="15">
         <f>SUM((S6+S5)/B20)*C20</f>
@@ -2226,24 +2382,24 @@
         <v>2160</v>
       </c>
       <c r="D21" s="21">
-        <f>SUM((D6+D5)/B21)*C21</f>
-        <v>125280</v>
+        <f>SUM((D6+D5+D4)/B21)*C21</f>
+        <v>142560</v>
       </c>
       <c r="E21" s="21">
         <f>SUM((E6+E5)/B21)*C21</f>
-        <v>154080</v>
+        <v>139680</v>
       </c>
       <c r="F21" s="21">
         <f>SUM((F6+F5)/B21)*C21</f>
-        <v>165600</v>
+        <v>146880</v>
       </c>
       <c r="G21" s="21">
         <f>SUM((G6+G5)/B21)*C21</f>
-        <v>174240</v>
+        <v>154080</v>
       </c>
       <c r="H21" s="21">
         <f>SUM((H6+H5)/B21)*C21</f>
-        <v>175680</v>
+        <v>168480</v>
       </c>
       <c r="I21" s="21">
         <f>SUM((I6+I5)/B21)*C21</f>
@@ -2283,7 +2439,7 @@
       </c>
       <c r="R21" s="21">
         <f>SUM((R6+R5)/B21)*C21</f>
-        <v>211680</v>
+        <v>175680</v>
       </c>
       <c r="S21" s="21">
         <f>SUM((S6+S5)/B21)*C21</f>
@@ -2309,24 +2465,24 @@
         <v>2265</v>
       </c>
       <c r="D22" s="15">
-        <f>SUM((D6+D5)/B22)*C22</f>
-        <v>131370</v>
+        <f>SUM((D6+D5+D4)/B22)*C22</f>
+        <v>149490</v>
       </c>
       <c r="E22" s="15">
         <f>SUM((E6+E5)/B22)*C22</f>
-        <v>161570</v>
+        <v>146470</v>
       </c>
       <c r="F22" s="15">
         <f>SUM((F6+F5)/B22)*C22</f>
-        <v>173650</v>
+        <v>154020</v>
       </c>
       <c r="G22" s="15">
         <f>SUM((G6+G5)/B22)*C22</f>
-        <v>182710</v>
+        <v>161570</v>
       </c>
       <c r="H22" s="15">
         <f>SUM((H6+H5)/B22)*C22</f>
-        <v>184220</v>
+        <v>176670</v>
       </c>
       <c r="I22" s="15">
         <f>SUM((I6+I5)/B22)*C22</f>
@@ -2366,7 +2522,7 @@
       </c>
       <c r="R22" s="15">
         <f>SUM((R6+R5)/B22)*C22</f>
-        <v>221970</v>
+        <v>184220</v>
       </c>
       <c r="S22" s="15">
         <f>SUM((S6+S5)/B22)*C22</f>
@@ -2396,852 +2552,1117 @@
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7">
-        <v>30</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2500</v>
-      </c>
-      <c r="D27" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7">
-        <v>50</v>
-      </c>
-      <c r="C28" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="8">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7">
-        <v>60</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7500</v>
-      </c>
-      <c r="D29" s="8">
-        <v>26000</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7">
         <v>30</v>
       </c>
-      <c r="B30" s="7">
-        <v>70</v>
-      </c>
       <c r="C30" s="8">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="D30" s="8">
-        <v>35200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="D31" s="8">
-        <v>48000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8">
+        <v>7500</v>
+      </c>
+      <c r="D32" s="8">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7">
+        <v>70</v>
+      </c>
+      <c r="C33" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="8">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7">
+        <v>90</v>
+      </c>
+      <c r="C34" s="8">
+        <v>15000</v>
+      </c>
+      <c r="D34" s="8">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B35" s="7">
         <v>150</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C35" s="8">
         <v>35000</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D35" s="8">
         <v>100000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="36" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B36" s="7">
         <v>200</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C36" s="8">
         <v>50000</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D36" s="8">
         <v>175000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="37" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B37" s="7">
         <v>250</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C37" s="8">
         <v>115000</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D37" s="8">
         <v>225000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="38" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B38" s="7">
         <v>280</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C38" s="8">
         <v>125000</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D38" s="8">
         <v>250000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B39" s="7">
         <v>300</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C39" s="8">
         <v>137500</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D39" s="8">
         <v>275000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B40" s="7">
         <v>350</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C40" s="8">
         <v>150000</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D40" s="8">
         <v>300000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="41" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B41" s="7">
         <v>450</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C41" s="8">
         <v>55000</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D41" s="8">
         <v>325000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="42" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B42" s="7">
         <v>900</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C42" s="8">
         <v>500000</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D42" s="8">
         <v>1000000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="43" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B43" s="7">
         <v>700</v>
-      </c>
-      <c r="C40" s="8">
-        <v>250000</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="7">
-        <v>100</v>
-      </c>
-      <c r="C41" s="8">
-        <v>75000</v>
-      </c>
-      <c r="D41" s="8">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="7">
-        <v>300</v>
-      </c>
-      <c r="C42" s="8">
-        <v>175000</v>
-      </c>
-      <c r="D42" s="8">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="7">
-        <v>500</v>
       </c>
       <c r="C43" s="8">
         <v>250000</v>
       </c>
       <c r="D43" s="8">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="7">
+        <v>100</v>
+      </c>
+      <c r="C44" s="8">
+        <v>75000</v>
+      </c>
+      <c r="D44" s="8">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="7">
+        <v>300</v>
+      </c>
+      <c r="C45" s="8">
+        <v>175000</v>
+      </c>
+      <c r="D45" s="8">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="7">
+        <v>500</v>
+      </c>
+      <c r="C46" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D46" s="8">
         <v>500000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="47" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B47" s="7">
         <v>700</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C47" s="8">
         <v>350000</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D47" s="8">
         <v>700000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
+      <c r="B49" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8">
-        <v>15000</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="25"/>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8">
-        <v>50000</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8">
-        <v>100000</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="D52" s="8"/>
-      <c r="E52" s="25"/>
-    </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="8">
-        <v>500000</v>
+        <v>15000</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="8">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="25"/>
-    </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="8">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="25"/>
-    </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="8">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="25"/>
-    </row>
-    <row r="57" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="8">
-        <v>40000</v>
+        <v>500000</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="25"/>
-    </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="8">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="25"/>
-    </row>
-    <row r="59" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="8">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="D59" s="8"/>
-      <c r="E59" s="25"/>
-    </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="8">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="D60" s="8"/>
-      <c r="E60" s="25"/>
-    </row>
-    <row r="61" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="D61" s="8"/>
-      <c r="E61" s="25"/>
-    </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D62" s="8"/>
-      <c r="E62" s="25"/>
-    </row>
-    <row r="63" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="8">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="D63" s="8"/>
-      <c r="E63" s="25"/>
-      <c r="G63" s="26"/>
-    </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="8">
-        <v>140000</v>
+        <v>70000</v>
       </c>
       <c r="D64" s="8"/>
-      <c r="E64" s="25"/>
-    </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="8">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="D65" s="8"/>
-      <c r="E65" s="25"/>
-    </row>
-    <row r="66" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="D66" s="8"/>
-      <c r="E66" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="8">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="25"/>
-    </row>
-    <row r="68" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="8">
+        <v>140000</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8">
+        <v>160000</v>
+      </c>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8">
+        <v>180000</v>
+      </c>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8">
+        <v>200000</v>
+      </c>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8">
         <v>220000</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="25"/>
-    </row>
-    <row r="69" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B74" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="8">
+        <v>15000</v>
+      </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
+    <row r="78" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
+      <c r="C78" s="8">
+        <v>18000</v>
+      </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
+    <row r="79" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
+      <c r="C79" s="8">
+        <v>22500</v>
+      </c>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
+    <row r="80" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
+      <c r="C80" s="8">
+        <v>45200</v>
+      </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
+    <row r="81" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
+      <c r="C81" s="8">
+        <v>47300</v>
+      </c>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
+    <row r="82" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
+      <c r="C82" s="8">
+        <v>77900</v>
+      </c>
       <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
+      <c r="G82" s="33"/>
+    </row>
+    <row r="83" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="8">
+        <v>80000</v>
+      </c>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
+    <row r="84" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
+      <c r="C84" s="8">
+        <v>85000</v>
+      </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
+      <c r="C85" s="8">
+        <v>90000</v>
+      </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
+    <row r="86" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
+      <c r="C86" s="8">
+        <v>100000</v>
+      </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
+    <row r="87" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
+      <c r="C87" s="8">
+        <v>115000</v>
+      </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
+    <row r="88" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
+      <c r="C88" s="8">
+        <v>80000</v>
+      </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
+    <row r="89" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
+      <c r="C89" s="8">
+        <v>90000</v>
+      </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="6"/>
+    <row r="90" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
+      <c r="C90" s="8">
+        <v>92000</v>
+      </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
+    <row r="91" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
+      <c r="C91" s="8">
+        <v>95000</v>
+      </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8">
+        <v>98000</v>
+      </c>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="8">
+        <v>96500</v>
+      </c>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
+      <c r="C94" s="8">
+        <v>97300</v>
+      </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="8">
+        <v>125000</v>
+      </c>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
+      <c r="C96" s="8">
+        <v>200000</v>
+      </c>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
+      <c r="C97" s="8">
+        <v>250000</v>
+      </c>
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
+      <c r="C98" s="8">
+        <v>180000</v>
+      </c>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
+      <c r="C99" s="8">
+        <v>190000</v>
+      </c>
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
+      <c r="C100" s="8">
+        <v>185000</v>
+      </c>
       <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
+      <c r="C101" s="8">
+        <v>150000</v>
+      </c>
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
+      <c r="C102" s="8">
+        <v>145000</v>
+      </c>
       <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="8">
+        <v>160000</v>
+      </c>
       <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
+      <c r="C104" s="8">
+        <v>135000</v>
+      </c>
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
+      <c r="C105" s="8">
+        <v>160000</v>
+      </c>
       <c r="D105" s="8"/>
     </row>
     <row r="106" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
+      <c r="C106" s="8">
+        <v>175000</v>
+      </c>
       <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B107" s="7">
-        <v>5</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B107" s="7"/>
       <c r="C107" s="8">
-        <v>80000</v>
+        <v>184000</v>
       </c>
       <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="25"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="25"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="25"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+    </row>
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="25"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+    </row>
+    <row r="113" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="25"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+    </row>
+    <row r="114" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="25"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="25"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+    </row>
+    <row r="117" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+    </row>
+    <row r="128" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+    </row>
+    <row r="130" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="7">
-        <v>10</v>
-      </c>
-      <c r="C108" s="8">
-        <v>150000</v>
-      </c>
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-    </row>
-    <row r="113" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-    </row>
-    <row r="114" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-    </row>
-    <row r="115" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A140" s="6"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3251,7 +3672,7 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
